--- a/Software specification/Traceability RTM/PO_SAG_Mobile_App_RTM_1_0.xlsx
+++ b/Software specification/Traceability RTM/PO_SAG_Mobile_App_RTM_1_0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayagamal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation project\RTM\MobileApp_SwProcess_Documents\Software specification\Traceability RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5392608F-943B-4E81-A03D-6CAC7161264F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ADE895-0EC1-41DD-8256-6EE6BD4E4B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,17 +738,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,17 +767,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,8 +991,8 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:I39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1023,7 +1023,7 @@
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>44631</v>
       </c>
       <c r="F2" s="9"/>
@@ -1039,7 +1039,7 @@
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="9"/>
@@ -1055,7 +1055,7 @@
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="9"/>
@@ -1071,7 +1071,7 @@
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="9"/>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="9"/>
@@ -1108,20 +1108,20 @@
     </row>
     <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -1133,313 +1133,313 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="18"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="9"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="18"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="17"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="8"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -1449,9 +1449,9 @@
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -1461,62 +1461,62 @@
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="16"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="8"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="9"/>
@@ -1526,67 +1526,125 @@
       <c r="I39" s="9"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="16"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="20"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="17"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="8"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="16"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="20"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="8"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G38:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I35"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D15:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B8:C9"/>
@@ -1603,69 +1661,11 @@
     <mergeCell ref="B38:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D15:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I35"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G38:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Software specification/Traceability RTM/PO_SAG_Mobile_App_RTM_1_0.xlsx
+++ b/Software specification/Traceability RTM/PO_SAG_Mobile_App_RTM_1_0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation project\RTM\MobileApp_SwProcess_Documents\Software specification\Traceability RTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\graduation project\RTM\MobileApp_SwProcess_Documents\Software specification\Traceability RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ADE895-0EC1-41DD-8256-6EE6BD4E4B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B4B272-A6CF-4919-89D0-D1AEDFFAF391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Entry Date</t>
   </si>
@@ -536,6 +536,121 @@
   </si>
   <si>
     <t>Proposed</t>
+  </si>
+  <si>
+    <r>
+      <t>PO_SAG_CR_APP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>-V1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Req_PO_SAG_CRS_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>-V1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Req_PO_SAG_CRS_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>-V1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Req_PO_SAG_CRS_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>-V1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Req_PO_SAG_CRS_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>-V1.0</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -729,35 +844,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,10 +876,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,22 +1101,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1016,14 +1128,14 @@
       <c r="I1" s="3"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>44631</v>
       </c>
       <c r="F2" s="9"/>
@@ -1032,14 +1144,14 @@
       <c r="I2" s="1"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="9"/>
@@ -1048,14 +1160,14 @@
       <c r="I3" s="1"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="9"/>
@@ -1064,14 +1176,14 @@
       <c r="I4" s="1"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="9"/>
@@ -1080,7 +1192,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1092,9 +1204,9 @@
       <c r="I6" s="7"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="9"/>
@@ -1106,25 +1218,25 @@
       <c r="I7" s="9"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1133,313 +1245,310 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="9"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="11"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="11"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="20"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="12"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="14"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -1447,11 +1556,11 @@
       <c r="I33" s="9"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="14"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="20"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -1459,64 +1568,64 @@
       <c r="I34" s="9"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="11"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="14"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="14"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="9"/>
@@ -1526,92 +1635,134 @@
       <c r="I39" s="9"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="11"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="20"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="12"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
+      <c r="D41" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="8"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="11"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="20"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="20"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="6"/>
     </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G38:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I35"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
+  <mergeCells count="87">
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C27"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C34"/>
+    <mergeCell ref="B35:C37"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
@@ -1628,44 +1779,34 @@
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C34"/>
-    <mergeCell ref="B35:C37"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I35"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G38:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Software specification/Traceability RTM/PO_SAG_Mobile_App_RTM_1_0.xlsx
+++ b/Software specification/Traceability RTM/PO_SAG_Mobile_App_RTM_1_0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\graduation project\RTM\MobileApp_SwProcess_Documents\Software specification\Traceability RTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\graduation project\RTM2\MobileApp_SwProcess_Documents\Software specification\Traceability RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B4B272-A6CF-4919-89D0-D1AEDFFAF391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5DD570E-A51B-4A7F-A7A3-D17481F3CBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,16 +857,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,13 +879,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,7 +1135,7 @@
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="15">
         <v>44631</v>
       </c>
       <c r="F2" s="9"/>
@@ -1151,7 +1151,7 @@
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="9"/>
@@ -1167,7 +1167,7 @@
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="9"/>
@@ -1183,7 +1183,7 @@
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="9"/>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="9"/>
@@ -1220,20 +1220,20 @@
     </row>
     <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="13"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1245,12 +1245,12 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="13"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="9"/>
@@ -1262,9 +1262,9 @@
       <c r="I10" s="9"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
@@ -1274,9 +1274,9 @@
       <c r="I11" s="9"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8" t="s">
         <v>10</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
@@ -1312,9 +1312,9 @@
       <c r="I14" s="9"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8" t="s">
         <v>11</v>
@@ -1326,9 +1326,9 @@
       <c r="I15" s="9"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1340,37 +1340,37 @@
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8" t="s">
         <v>14</v>
@@ -1384,33 +1384,33 @@
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="9"/>
@@ -1422,9 +1422,9 @@
       <c r="I22" s="9"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="9"/>
       <c r="G23" s="11"/>
       <c r="H23" s="9"/>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="19"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="9"/>
       <c r="D24" s="8" t="s">
         <v>19</v>
@@ -1447,9 +1447,9 @@
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="19"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="9"/>
@@ -1459,9 +1459,9 @@
       <c r="I25" s="9"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
@@ -1471,9 +1471,9 @@
       <c r="I26" s="9"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="9"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
@@ -1483,32 +1483,32 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="17"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="9"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="19"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="8"/>
@@ -1520,21 +1520,21 @@
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="17"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="9"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1544,9 +1544,9 @@
       <c r="I32" s="9"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="9"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
@@ -1558,9 +1558,9 @@
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="35" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="17"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1579,35 +1579,35 @@
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="19"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="9"/>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="9"/>
       <c r="D39" s="8" t="s">
         <v>22</v>
@@ -1637,21 +1637,21 @@
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="17"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="19"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="9"/>
       <c r="D41" s="8" t="s">
         <v>24</v>
@@ -1663,19 +1663,19 @@
       <c r="I41" s="9"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="17"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="19"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
@@ -1683,7 +1683,7 @@
       <c r="J43" s="6"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C45" s="9"/>
@@ -1708,7 +1708,7 @@
       <c r="F47" s="9"/>
     </row>
     <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="9"/>
@@ -1720,16 +1720,67 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G38:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I35"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D15:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B8:C9"/>
@@ -1746,67 +1797,16 @@
     <mergeCell ref="B38:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D15:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I35"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G38:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
